--- a/xls/square_high_un_16_tri3_10.xlsx
+++ b/xls/square_high_un_16_tri3_10.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>864</v>
       </c>
       <c r="I10">
-        <v>-0.32147723627390473</v>
+        <v>-2.0053692327186057</v>
       </c>
       <c r="J10">
-        <v>-1.1042731544211675</v>
+        <v>-1.8314857674809972</v>
       </c>
       <c r="K10">
-        <v>-0.3641904510616749</v>
+        <v>-0.8171802413023329</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>726</v>
+        <v>906</v>
       </c>
       <c r="I11">
-        <v>-1.5198718059886827</v>
+        <v>-2.101718220725287</v>
       </c>
       <c r="J11">
-        <v>-1.6130485639473062</v>
+        <v>-1.7383293850182036</v>
       </c>
       <c r="K11">
-        <v>-0.6867940250724749</v>
+        <v>-0.6991214113080836</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>864</v>
+        <v>1104</v>
       </c>
       <c r="I12">
-        <v>-1.9805952209426565</v>
+        <v>-2.026414529118584</v>
       </c>
       <c r="J12">
-        <v>-1.7617295876524695</v>
+        <v>-1.6604146525230161</v>
       </c>
       <c r="K12">
-        <v>-0.7925241883469626</v>
+        <v>-0.41860332971155545</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-2.0854747934548485</v>
+        <v>-1.779606667530911</v>
       </c>
       <c r="J13">
-        <v>-1.6550216026584434</v>
+        <v>-1.477215771234618</v>
       </c>
       <c r="K13">
-        <v>-0.5153215500784213</v>
+        <v>-0.09924076615873145</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-1.721684591936302</v>
+        <v>-1.7793273951982087</v>
       </c>
       <c r="J14">
-        <v>-1.3977655349293223</v>
+        <v>-1.4805326459143222</v>
       </c>
       <c r="K14">
-        <v>-0.09850499575802761</v>
+        <v>-0.1228851670991096</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-1.5003259058391523</v>
+        <v>-1.2220115087412406</v>
       </c>
       <c r="J15">
-        <v>-1.270168035558952</v>
+        <v>-1.0943788262835341</v>
       </c>
       <c r="K15">
-        <v>0.1150475455628589</v>
+        <v>0.36792466358608944</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-1.1940582938805393</v>
+        <v>-1.3647921255687707</v>
       </c>
       <c r="J16">
-        <v>-1.0501876322451908</v>
+        <v>-1.284244187949454</v>
       </c>
       <c r="K16">
-        <v>0.40140057359856796</v>
+        <v>0.005923203586114403</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-0.8721716008100028</v>
+        <v>-0.14568328023324487</v>
       </c>
       <c r="J17">
-        <v>-0.801666154085005</v>
+        <v>-0.1336185558216775</v>
       </c>
       <c r="K17">
-        <v>0.7886920125691903</v>
+        <v>1.6370440795477292</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.4411597889130243</v>
+        <v>-1.1318704981571635e-5</v>
       </c>
       <c r="J18">
-        <v>-0.39233393375085374</v>
+        <v>-1.222827347828524e-5</v>
       </c>
       <c r="K18">
-        <v>1.5171589363892004</v>
+        <v>2.0205591292580087</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.0632804242376344</v>
+        <v>-5.122300478099777e-7</v>
       </c>
       <c r="J19">
-        <v>-0.0582004331837455</v>
+        <v>-1.267292401671623e-6</v>
       </c>
       <c r="K19">
-        <v>2.0324852981218555</v>
+        <v>1.6364154284219468</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>5.42932793542901e-6</v>
+        <v>-4.5375524723776154e-7</v>
       </c>
       <c r="J20">
-        <v>-4.7255580305424625e-6</v>
+        <v>-7.554259601892225e-7</v>
       </c>
       <c r="K20">
-        <v>2.074308679112554</v>
+        <v>1.4839417401907617</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-2.4720023607013787e-6</v>
+        <v>-3.876596196317942e-7</v>
       </c>
       <c r="J21">
-        <v>-3.5711147339239494e-6</v>
+        <v>-5.899881590540931e-7</v>
       </c>
       <c r="K21">
-        <v>1.806658693580424</v>
+        <v>1.417160499054511</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-7.26647136689828e-7</v>
+        <v>-4.2680747609138374e-7</v>
       </c>
       <c r="J22">
-        <v>-1.2133624017795075e-6</v>
+        <v>-5.508788315725342e-7</v>
       </c>
       <c r="K22">
-        <v>1.5876003710703839</v>
+        <v>1.3787143092267609</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-8.4348011051204e-7</v>
+        <v>-3.75328926967929e-7</v>
       </c>
       <c r="J23">
-        <v>-1.0740215374087932e-6</v>
+        <v>-4.7155477161256375e-7</v>
       </c>
       <c r="K23">
-        <v>1.5263120185637</v>
+        <v>1.3399385328328595</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-6.643438922578852e-7</v>
+        <v>-4.0612394025782024e-7</v>
       </c>
       <c r="J24">
-        <v>-8.265976929004198e-7</v>
+        <v>-4.83867799834618e-7</v>
       </c>
       <c r="K24">
-        <v>1.4661839798284397</v>
+        <v>1.3375848981869423</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-5.683855039487899e-7</v>
+        <v>-3.790038490572862e-7</v>
       </c>
       <c r="J25">
-        <v>-6.772647607695003e-7</v>
+        <v>-4.4637542519280464e-7</v>
       </c>
       <c r="K25">
-        <v>1.4122135807740328</v>
+        <v>1.3163713905890515</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-4.6198135020586033e-7</v>
+        <v>-3.505971150504187e-7</v>
       </c>
       <c r="J26">
-        <v>-5.768510483480375e-7</v>
+        <v>-4.2267502813013845e-7</v>
       </c>
       <c r="K26">
-        <v>1.3857894510811712</v>
+        <v>1.3084787962143316</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-4.4172731243683455e-7</v>
+        <v>-3.4618334158984705e-7</v>
       </c>
       <c r="J27">
-        <v>-5.414983463792002e-7</v>
+        <v>-4.042139215336828e-7</v>
       </c>
       <c r="K27">
-        <v>1.3669156559528552</v>
+        <v>1.2932087468270277</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-4.0861322173837883e-7</v>
+        <v>-3.6100744041592865e-7</v>
       </c>
       <c r="J28">
-        <v>-5.066206163905078e-7</v>
+        <v>-4.1209814591168023e-7</v>
       </c>
       <c r="K28">
-        <v>1.3545811082508161</v>
+        <v>1.2925995847880343</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-3.8597327853460256e-7</v>
+        <v>-3.712714400132828e-7</v>
       </c>
       <c r="J29">
-        <v>-4.845699346783198e-7</v>
+        <v>-4.182375739853915e-7</v>
       </c>
       <c r="K29">
-        <v>1.3465960413078994</v>
+        <v>1.2933377733127882</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-3.754637158114263e-7</v>
+        <v>-3.526904975659715e-7</v>
       </c>
       <c r="J30">
-        <v>-4.606204285565006e-7</v>
+        <v>-4.005091968560292e-7</v>
       </c>
       <c r="K30">
-        <v>1.332023383446245</v>
+        <v>1.2857920056049832</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1211,22 +1211,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-3.6572907447994455e-7</v>
+        <v>-3.3845634474729154e-7</v>
       </c>
       <c r="J31">
-        <v>-4.3872645337117456e-7</v>
+        <v>-3.8020820128664265e-7</v>
       </c>
       <c r="K31">
-        <v>1.317583588867862</v>
+        <v>1.271575458086289</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1246,22 +1246,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-3.5976443714326063e-7</v>
+        <v>-3.457247929066243e-7</v>
       </c>
       <c r="J32">
-        <v>-4.198562150629997e-7</v>
+        <v>-3.873275648889939e-7</v>
       </c>
       <c r="K32">
-        <v>1.3024013671170214</v>
+        <v>1.274916241154513</v>
       </c>
     </row>
   </sheetData>
